--- a/raw_data/20200818_saline/20200818_Sensor3_Test_14.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_14.xlsx
@@ -1,658 +1,1074 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8470660D-F0B3-40C1-884D-34CE4305FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>12257.185143</v>
+        <v>12257.185143000001</v>
       </c>
       <c r="B2" s="1">
-        <v>3.404774</v>
+        <v>3.4047740000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1142.630000</v>
+        <v>1142.6300000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-255.564000</v>
+        <v>-255.56399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>12267.560420</v>
+        <v>12267.56042</v>
       </c>
       <c r="G2" s="1">
-        <v>3.407656</v>
+        <v>3.4076559999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1164.380000</v>
+        <v>1164.3800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-215.262000</v>
+        <v>-215.262</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>12278.031959</v>
       </c>
       <c r="L2" s="1">
-        <v>3.410564</v>
+        <v>3.4105639999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1192.020000</v>
+        <v>1192.02</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.565000</v>
+        <v>-149.565</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>12288.565496</v>
+        <v>12288.565495999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.413490</v>
+        <v>3.4134899999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1199.300000</v>
+        <v>1199.3</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.523000</v>
+        <v>-127.523</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>12298.770226</v>
+        <v>12298.770226000001</v>
       </c>
       <c r="V2" s="1">
-        <v>3.416325</v>
+        <v>3.4163250000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1206.430000</v>
+        <v>1206.43</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.721000</v>
+        <v>-106.721</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>12309.206014</v>
+        <v>12309.206013999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.419224</v>
+        <v>3.4192239999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.729200</v>
+        <v>-89.729200000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>12319.768846</v>
+        <v>12319.768846000001</v>
       </c>
       <c r="AF2" s="1">
         <v>3.422158</v>
       </c>
       <c r="AG2" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.331500</v>
+        <v>-85.331500000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>12330.171905</v>
+        <v>12330.171904999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.425048</v>
+        <v>3.4250479999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1225.370000</v>
+        <v>1225.3699999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.683100</v>
+        <v>-88.683099999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>12340.364227</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.427879</v>
+        <v>3.4278789999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1233.170000</v>
+        <v>1233.17</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.536000</v>
+        <v>-100.536</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>12351.408645</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.430947</v>
+        <v>3.4309470000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="AW2" s="1">
-        <v>-119.710000</v>
+        <v>-119.71</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>12362.741207</v>
+        <v>12362.741206999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.434095</v>
+        <v>3.4340950000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1251.380000</v>
+        <v>1251.3800000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.047000</v>
+        <v>-137.047</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>12373.412171</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.437059</v>
+        <v>3.4370590000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1290.870000</v>
+        <v>1290.8699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-218.400000</v>
+        <v>-218.4</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>12384.127247</v>
@@ -661,300 +1077,300 @@
         <v>3.440035</v>
       </c>
       <c r="BK2" s="1">
-        <v>1359.240000</v>
+        <v>1359.24</v>
       </c>
       <c r="BL2" s="1">
-        <v>-354.252000</v>
+        <v>-354.25200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>12395.163371</v>
+        <v>12395.163371000001</v>
       </c>
       <c r="BO2" s="1">
         <v>3.443101</v>
       </c>
       <c r="BP2" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.512000</v>
+        <v>-576.51199999999994</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>12406.743292</v>
+        <v>12406.743291999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.446318</v>
+        <v>3.4463180000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1601.410000</v>
+        <v>1601.41</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.888000</v>
+        <v>-828.88800000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>12417.400334</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.449278</v>
+        <v>3.4492780000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1751.240000</v>
+        <v>1751.24</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1103.820000</v>
+        <v>-1103.82</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>12428.720064</v>
+        <v>12428.720063999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.452422</v>
+        <v>3.4524219999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2166.510000</v>
+        <v>2166.5100000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1774.330000</v>
+        <v>-1774.33</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>12257.545239</v>
+        <v>12257.545238999999</v>
       </c>
       <c r="B3" s="1">
         <v>3.404874</v>
       </c>
       <c r="C3" s="1">
-        <v>1142.060000</v>
+        <v>1142.06</v>
       </c>
       <c r="D3" s="1">
-        <v>-256.194000</v>
+        <v>-256.19400000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>12267.929443</v>
+        <v>12267.929443000001</v>
       </c>
       <c r="G3" s="1">
-        <v>3.407758</v>
+        <v>3.4077579999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>1164.020000</v>
+        <v>1164.02</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.194000</v>
+        <v>-215.19399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>12278.419367</v>
       </c>
       <c r="L3" s="1">
-        <v>3.410672</v>
+        <v>3.4106719999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1191.370000</v>
+        <v>1191.3699999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.377000</v>
+        <v>-149.37700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>12289.039671</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.413622</v>
+        <v>3.4136220000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1199.260000</v>
+        <v>1199.26</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.476000</v>
+        <v>-127.476</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>12299.484921</v>
+        <v>12299.484920999999</v>
       </c>
       <c r="V3" s="1">
-        <v>3.416524</v>
+        <v>3.4165239999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.777000</v>
+        <v>-106.777</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>12309.593885</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.419332</v>
+        <v>3.4193319999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.834500</v>
+        <v>-89.834500000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>12320.101167</v>
+        <v>12320.101167000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.422250</v>
+        <v>3.42225</v>
       </c>
       <c r="AG3" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.394900</v>
+        <v>-85.394900000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>12330.521585</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.425145</v>
+        <v>3.4251450000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.659200</v>
+        <v>-88.659199999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>12341.070035</v>
+        <v>12341.070035000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.428075</v>
+        <v>3.4280750000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1233.170000</v>
+        <v>1233.17</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.515000</v>
+        <v>-100.515</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>12352.102020</v>
+        <v>12352.10202</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.431139</v>
+        <v>3.4311389999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="AW3" s="1">
-        <v>-119.731000</v>
+        <v>-119.73099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>12363.174710</v>
+        <v>12363.174709999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>3.434215</v>
       </c>
       <c r="BA3" s="1">
-        <v>1251.360000</v>
+        <v>1251.3599999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.064000</v>
+        <v>-137.06399999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>12373.780700</v>
+        <v>12373.780699999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.437161</v>
+        <v>3.4371610000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1290.850000</v>
+        <v>1290.8499999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-218.386000</v>
+        <v>-218.386</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>12384.507642</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.440141</v>
+        <v>3.4401410000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL3" s="1">
-        <v>-354.240000</v>
+        <v>-354.24</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>12395.599674</v>
+        <v>12395.599673999999</v>
       </c>
       <c r="BO3" s="1">
         <v>3.443222</v>
       </c>
       <c r="BP3" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.573000</v>
+        <v>-576.57299999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>12407.195643</v>
+        <v>12407.195642999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.446443</v>
+        <v>3.4464429999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1601.480000</v>
+        <v>1601.48</v>
       </c>
       <c r="BV3" s="1">
-        <v>-828.884000</v>
+        <v>-828.88400000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>12417.868062</v>
@@ -963,120 +1379,120 @@
         <v>3.449408</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1751.270000</v>
+        <v>1751.27</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1103.850000</v>
+        <v>-1103.8499999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>12428.984398</v>
+        <v>12428.984398000001</v>
       </c>
       <c r="CD3" s="1">
         <v>3.452496</v>
       </c>
       <c r="CE3" s="1">
-        <v>2166.840000</v>
+        <v>2166.84</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1774.570000</v>
+        <v>-1774.57</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>12257.881488</v>
+        <v>12257.881488000001</v>
       </c>
       <c r="B4" s="1">
-        <v>3.404967</v>
+        <v>3.4049670000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1142.440000</v>
+        <v>1142.44</v>
       </c>
       <c r="D4" s="1">
-        <v>-256.187000</v>
+        <v>-256.18700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>12268.279124</v>
+        <v>12268.279124000001</v>
       </c>
       <c r="G4" s="1">
-        <v>3.407855</v>
+        <v>3.4078550000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.920000</v>
+        <v>1163.92</v>
       </c>
       <c r="I4" s="1">
-        <v>-214.768000</v>
+        <v>-214.768</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>12279.109765</v>
+        <v>12279.109764999999</v>
       </c>
       <c r="L4" s="1">
-        <v>3.410864</v>
+        <v>3.4108640000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1191.510000</v>
+        <v>1191.51</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.375000</v>
+        <v>-149.375</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>12289.256951</v>
+        <v>12289.256950999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.413682</v>
+        <v>3.4136820000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1199.220000</v>
+        <v>1199.22</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.565000</v>
+        <v>-127.565</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>12299.829675</v>
+        <v>12299.829675000001</v>
       </c>
       <c r="V4" s="1">
-        <v>3.416619</v>
+        <v>3.4166189999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.410000</v>
+        <v>1206.4100000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.702000</v>
+        <v>-106.702</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>12309.930172</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.419425</v>
+        <v>3.4194249999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.835800</v>
+        <v>-89.835800000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>12320.443373</v>
@@ -1085,118 +1501,118 @@
         <v>3.422345</v>
       </c>
       <c r="AG4" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.340300</v>
+        <v>-85.340299999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>12331.178816</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.425327</v>
+        <v>3.4253269999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.666300</v>
+        <v>-88.666300000000007</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>12341.480691</v>
+        <v>12341.480691000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.428189</v>
+        <v>3.4281890000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1233.190000</v>
+        <v>1233.19</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.510000</v>
+        <v>-100.51</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>12352.521141</v>
+        <v>12352.521140999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.431256</v>
+        <v>3.4312559999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1243.030000</v>
+        <v>1243.03</v>
       </c>
       <c r="AW4" s="1">
-        <v>-119.707000</v>
+        <v>-119.70699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>12363.533355</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.434315</v>
+        <v>3.4343149999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1251.380000</v>
+        <v>1251.3800000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.054000</v>
+        <v>-137.054</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>12374.138807</v>
+        <v>12374.138806999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.437261</v>
+        <v>3.4372609999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1290.870000</v>
+        <v>1290.8699999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-218.424000</v>
+        <v>-218.42400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>12384.882617</v>
+        <v>12384.882616999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>3.440245</v>
       </c>
       <c r="BK4" s="1">
-        <v>1359.170000</v>
+        <v>1359.17</v>
       </c>
       <c r="BL4" s="1">
-        <v>-354.246000</v>
+        <v>-354.24599999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>12396.028748</v>
+        <v>12396.028748000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.443341</v>
+        <v>3.4433410000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.536000</v>
+        <v>-576.53599999999994</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>12407.619228</v>
@@ -1205,150 +1621,150 @@
         <v>3.446561</v>
       </c>
       <c r="BU4" s="1">
-        <v>1601.460000</v>
+        <v>1601.46</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.973000</v>
+        <v>-828.97299999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>12418.316941</v>
+        <v>12418.316940999999</v>
       </c>
       <c r="BY4" s="1">
         <v>3.449532</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1751.470000</v>
+        <v>1751.47</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1103.910000</v>
+        <v>-1103.9100000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>12429.503744</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.452640</v>
+        <v>3.4526400000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>2168.330000</v>
+        <v>2168.33</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1774.830000</v>
+        <v>-1774.83</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>12258.568944</v>
+        <v>12258.568944000001</v>
       </c>
       <c r="B5" s="1">
-        <v>3.405158</v>
+        <v>3.4051580000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1142.290000</v>
+        <v>1142.29</v>
       </c>
       <c r="D5" s="1">
-        <v>-256.291000</v>
+        <v>-256.291</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>12268.964626</v>
+        <v>12268.964626000001</v>
       </c>
       <c r="G5" s="1">
-        <v>3.408046</v>
+        <v>3.4080460000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.980000</v>
+        <v>1163.98</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.300000</v>
+        <v>-215.3</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>12279.453990</v>
+        <v>12279.45399</v>
       </c>
       <c r="L5" s="1">
-        <v>3.410959</v>
+        <v>3.4109590000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1191.710000</v>
+        <v>1191.71</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.399000</v>
+        <v>-149.399</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>12289.608087</v>
+        <v>12289.608087000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.413780</v>
+        <v>3.41378</v>
       </c>
       <c r="R5" s="1">
-        <v>1199.230000</v>
+        <v>1199.23</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.567000</v>
+        <v>-127.56699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>12300.172390</v>
+        <v>12300.17239</v>
       </c>
       <c r="V5" s="1">
-        <v>3.416715</v>
+        <v>3.4167149999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1206.480000</v>
+        <v>1206.48</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.756000</v>
+        <v>-106.756</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>12310.609238</v>
+        <v>12310.609237999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.419614</v>
+        <v>3.4196140000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.734600</v>
+        <v>-89.7346</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>12321.116942</v>
+        <v>12321.116942000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.422532</v>
+        <v>3.4225319999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.379400</v>
+        <v>-85.379400000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>12331.560207</v>
@@ -1357,180 +1773,180 @@
         <v>3.425433</v>
       </c>
       <c r="AL5" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.675900</v>
+        <v>-88.675899999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>12341.869058</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.428297</v>
+        <v>3.4282970000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1233.170000</v>
+        <v>1233.17</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.497000</v>
+        <v>-100.497</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>12352.883716</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.431357</v>
+        <v>3.4313570000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1243.030000</v>
+        <v>1243.03</v>
       </c>
       <c r="AW5" s="1">
-        <v>-119.704000</v>
+        <v>-119.70399999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>12363.895925</v>
+        <v>12363.895925000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.434416</v>
+        <v>3.4344160000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.074000</v>
+        <v>-137.07400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>12374.561868</v>
+        <v>12374.561868000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.437378</v>
+        <v>3.4373779999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1290.910000</v>
+        <v>1290.9100000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-218.404000</v>
+        <v>-218.404</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>12385.305208</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.440363</v>
+        <v>3.4403630000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL5" s="1">
-        <v>-354.240000</v>
+        <v>-354.24</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>12396.414105</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.443448</v>
+        <v>3.4434480000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.591000</v>
+        <v>-576.59100000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>12408.034379</v>
+        <v>12408.034379000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.446676</v>
+        <v>3.4466760000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1601.410000</v>
+        <v>1601.41</v>
       </c>
       <c r="BV5" s="1">
-        <v>-829.020000</v>
+        <v>-829.02</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>12418.749452</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.449653</v>
+        <v>3.4496530000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1751.260000</v>
+        <v>1751.26</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1103.930000</v>
+        <v>-1103.93</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>12430.021039</v>
+        <v>12430.021038999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.452784</v>
+        <v>3.4527839999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2167.930000</v>
+        <v>2167.9299999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1775.210000</v>
+        <v>-1775.21</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>12258.913663</v>
+        <v>12258.913662999999</v>
       </c>
       <c r="B6" s="1">
-        <v>3.405254</v>
+        <v>3.4052539999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1142.360000</v>
+        <v>1142.3599999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-255.900000</v>
+        <v>-255.9</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>12269.309810</v>
+        <v>12269.309810000001</v>
       </c>
       <c r="G6" s="1">
-        <v>3.408142</v>
+        <v>3.4081419999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1164.110000</v>
+        <v>1164.1099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.869000</v>
+        <v>-214.869</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>12279.806148</v>
@@ -1539,13 +1955,13 @@
         <v>3.411057</v>
       </c>
       <c r="M6" s="1">
-        <v>1191.830000</v>
+        <v>1191.83</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.446000</v>
+        <v>-149.446</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>12290.271734</v>
@@ -1554,43 +1970,43 @@
         <v>3.413964</v>
       </c>
       <c r="R6" s="1">
-        <v>1199.300000</v>
+        <v>1199.3</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.517000</v>
+        <v>-127.517</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>12300.841977</v>
       </c>
       <c r="V6" s="1">
-        <v>3.416901</v>
+        <v>3.4169010000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.825000</v>
+        <v>-106.825</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>12310.989626</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.419719</v>
+        <v>3.4197190000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1213.640000</v>
+        <v>1213.6400000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.911100</v>
+        <v>-89.911100000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>12321.506797</v>
@@ -1599,73 +2015,73 @@
         <v>3.422641</v>
       </c>
       <c r="AG6" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.323600</v>
+        <v>-85.323599999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>12331.909424</v>
+        <v>12331.909423999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.425530</v>
+        <v>3.4255300000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1225.370000</v>
+        <v>1225.3699999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.673100</v>
+        <v>-88.673100000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>12342.250978</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.428403</v>
+        <v>3.4284029999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1233.170000</v>
+        <v>1233.17</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.543000</v>
+        <v>-100.54300000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>12353.249763</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.431458</v>
+        <v>3.4314580000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1243.010000</v>
+        <v>1243.01</v>
       </c>
       <c r="AW6" s="1">
-        <v>-119.691000</v>
+        <v>-119.691</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>12364.326916</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.434535</v>
+        <v>3.4345349999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.063000</v>
+        <v>-137.06299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>12374.862438</v>
@@ -1674,120 +2090,120 @@
         <v>3.437462</v>
       </c>
       <c r="BF6" s="1">
-        <v>1290.880000</v>
+        <v>1290.8800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-218.400000</v>
+        <v>-218.4</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>12385.658360</v>
+        <v>12385.658359999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>3.440461</v>
       </c>
       <c r="BK6" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL6" s="1">
-        <v>-354.273000</v>
+        <v>-354.27300000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>12396.816394</v>
+        <v>12396.816393999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.443560</v>
+        <v>3.4435600000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.605000</v>
+        <v>-576.60500000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>12408.451514</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.446792</v>
+        <v>3.4467919999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1601.340000</v>
+        <v>1601.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-829.046000</v>
+        <v>-829.04600000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>12419.168571</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.449769</v>
+        <v>3.4497689999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1751.310000</v>
+        <v>1751.31</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1104.040000</v>
+        <v>-1104.04</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>12430.575068</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.452938</v>
+        <v>3.4529380000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2166.630000</v>
+        <v>2166.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1774.560000</v>
+        <v>-1774.56</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>12259.258383</v>
       </c>
       <c r="B7" s="1">
-        <v>3.405350</v>
+        <v>3.4053499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1142.600000</v>
+        <v>1142.5999999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-255.973000</v>
+        <v>-255.97300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>12269.657738</v>
       </c>
       <c r="G7" s="1">
-        <v>3.408238</v>
+        <v>3.4082379999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1163.920000</v>
+        <v>1163.92</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.341000</v>
+        <v>-215.34100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>12280.456902</v>
@@ -1796,270 +2212,270 @@
         <v>3.411238</v>
       </c>
       <c r="M7" s="1">
-        <v>1191.760000</v>
+        <v>1191.76</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.157000</v>
+        <v>-149.15700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>12290.652661</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.414070</v>
+        <v>3.4140700000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1199.310000</v>
+        <v>1199.31</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.520000</v>
+        <v>-127.52</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>12301.208519</v>
       </c>
       <c r="V7" s="1">
-        <v>3.417002</v>
+        <v>3.4170020000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1206.480000</v>
+        <v>1206.48</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.892000</v>
+        <v>-106.892</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>12311.335371</v>
+        <v>12311.335370999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.419815</v>
+        <v>3.4198149999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1213.770000</v>
+        <v>1213.77</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.870900</v>
+        <v>-89.870900000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>12321.817819</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.422727</v>
+        <v>3.4227270000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.325300</v>
+        <v>-85.325299999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>12332.258080</v>
+        <v>12332.25808</v>
       </c>
       <c r="AK7" s="1">
         <v>3.425627</v>
       </c>
       <c r="AL7" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.660100</v>
+        <v>-88.6601</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>12342.685473</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.428524</v>
+        <v>3.4285239999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1233.190000</v>
+        <v>1233.19</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.529000</v>
+        <v>-100.529</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>12353.688722</v>
+        <v>12353.688722000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.431580</v>
+        <v>3.4315799999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="AW7" s="1">
-        <v>-119.710000</v>
+        <v>-119.71</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>12364.611651</v>
+        <v>12364.611650999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.434614</v>
+        <v>3.4346139999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1251.390000</v>
+        <v>1251.3900000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.065000</v>
+        <v>-137.065</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>12375.222534</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.437562</v>
+        <v>3.4375619999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1290.880000</v>
+        <v>1290.8800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-218.403000</v>
+        <v>-218.40299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>12386.033831</v>
+        <v>12386.033831000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.440565</v>
+        <v>3.4405649999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL7" s="1">
-        <v>-354.238000</v>
+        <v>-354.238</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>12397.236472</v>
+        <v>12397.236472000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.443677</v>
+        <v>3.4436770000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.563000</v>
+        <v>-576.56299999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>12408.866665</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.446907</v>
+        <v>3.4469069999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1601.400000</v>
+        <v>1601.4</v>
       </c>
       <c r="BV7" s="1">
-        <v>-829.081000</v>
+        <v>-829.08100000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>12419.617958</v>
+        <v>12419.617958000001</v>
       </c>
       <c r="BY7" s="1">
         <v>3.449894</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1751.360000</v>
+        <v>1751.36</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1103.880000</v>
+        <v>-1103.8800000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>12431.091899</v>
+        <v>12431.091898999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.453081</v>
+        <v>3.4530810000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2168.090000</v>
+        <v>2168.09</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1775.230000</v>
+        <v>-1775.23</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>12259.913635</v>
+        <v>12259.913635000001</v>
       </c>
       <c r="B8" s="1">
         <v>3.405532</v>
       </c>
       <c r="C8" s="1">
-        <v>1142.380000</v>
+        <v>1142.3800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-255.636000</v>
+        <v>-255.636</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>12270.326112</v>
+        <v>12270.326112000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3.408424</v>
+        <v>3.4084240000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1164.530000</v>
+        <v>1164.53</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.579000</v>
+        <v>-215.57900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>12280.849730</v>
+        <v>12280.84973</v>
       </c>
       <c r="L8" s="1">
-        <v>3.411347</v>
+        <v>3.4113470000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1191.410000</v>
+        <v>1191.4100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.534000</v>
+        <v>-149.53399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>12291.001349</v>
@@ -2068,103 +2484,103 @@
         <v>3.414167</v>
       </c>
       <c r="R8" s="1">
-        <v>1199.260000</v>
+        <v>1199.26</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.602000</v>
+        <v>-127.602</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>12301.553736</v>
       </c>
       <c r="V8" s="1">
-        <v>3.417098</v>
+        <v>3.4170980000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1206.470000</v>
+        <v>1206.47</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.817000</v>
+        <v>-106.81699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>12311.688489</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.419913</v>
+        <v>3.4199130000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.730200</v>
+        <v>-89.730199999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>12322.238396</v>
+        <v>12322.238396000001</v>
       </c>
       <c r="AF8" s="1">
         <v>3.422844</v>
       </c>
       <c r="AG8" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.338800</v>
+        <v>-85.338800000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>12332.679677</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.425744</v>
+        <v>3.4257439999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.669700</v>
+        <v>-88.669700000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>12342.969680</v>
+        <v>12342.96968</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.428603</v>
+        <v>3.4286029999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1233.220000</v>
+        <v>1233.22</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.544000</v>
+        <v>-100.544</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>12353.981362</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.431661</v>
+        <v>3.4316610000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1243.050000</v>
+        <v>1243.05</v>
       </c>
       <c r="AW8" s="1">
-        <v>-119.706000</v>
+        <v>-119.706</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>12364.970228</v>
@@ -2173,13 +2589,13 @@
         <v>3.434714</v>
       </c>
       <c r="BA8" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.070000</v>
+        <v>-137.07</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>12375.582665</v>
@@ -2188,105 +2604,105 @@
         <v>3.437662</v>
       </c>
       <c r="BF8" s="1">
-        <v>1290.870000</v>
+        <v>1290.8699999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-218.431000</v>
+        <v>-218.43100000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>12386.413767</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.440670</v>
+        <v>3.4406699999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1359.230000</v>
+        <v>1359.23</v>
       </c>
       <c r="BL8" s="1">
-        <v>-354.292000</v>
+        <v>-354.29199999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>12398.051928</v>
+        <v>12398.051928000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.443903</v>
+        <v>3.4439030000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.557000</v>
+        <v>-576.55700000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>12409.279866</v>
+        <v>12409.279866000001</v>
       </c>
       <c r="BT8" s="1">
         <v>3.447022</v>
       </c>
       <c r="BU8" s="1">
-        <v>1601.290000</v>
+        <v>1601.29</v>
       </c>
       <c r="BV8" s="1">
-        <v>-829.136000</v>
+        <v>-829.13599999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>12420.044010</v>
+        <v>12420.04401</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.450012</v>
+        <v>3.4500120000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1751.290000</v>
+        <v>1751.29</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1103.870000</v>
+        <v>-1103.8699999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>12431.622620</v>
+        <v>12431.62262</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.453229</v>
+        <v>3.4532289999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2167.360000</v>
+        <v>2167.36</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1772.660000</v>
+        <v>-1772.66</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>12260.280143</v>
       </c>
       <c r="B9" s="1">
-        <v>3.405633</v>
+        <v>3.4056329999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1142.440000</v>
+        <v>1142.44</v>
       </c>
       <c r="D9" s="1">
-        <v>-256.093000</v>
+        <v>-256.09300000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>12270.690671</v>
@@ -2295,163 +2711,163 @@
         <v>3.408525</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.880000</v>
+        <v>1163.8800000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-214.915000</v>
+        <v>-214.91499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>12281.184034</v>
       </c>
       <c r="L9" s="1">
-        <v>3.411440</v>
+        <v>3.4114399999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1191.510000</v>
+        <v>1191.51</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.400000</v>
+        <v>-149.4</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>12291.351556</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.414264</v>
+        <v>3.4142640000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.574000</v>
+        <v>-127.574</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>12301.898486</v>
       </c>
       <c r="V9" s="1">
-        <v>3.417194</v>
+        <v>3.4171939999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.490000</v>
+        <v>1206.49</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.786000</v>
+        <v>-106.786</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>12312.126457</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.420035</v>
+        <v>3.4200349999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1214.060000</v>
+        <v>1214.06</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.835000</v>
+        <v>-89.834999999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>12322.508221</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.422919</v>
+        <v>3.4229189999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.342000</v>
+        <v>-85.341999999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>12332.958463</v>
+        <v>12332.958463000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.425822</v>
+        <v>3.4258220000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.662700</v>
+        <v>-88.662700000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>12343.329808</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.428703</v>
+        <v>3.4287030000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1233.180000</v>
+        <v>1233.18</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.532000</v>
+        <v>-100.532</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>12354.341458</v>
+        <v>12354.341458000001</v>
       </c>
       <c r="AU9" s="1">
         <v>3.431762</v>
       </c>
       <c r="AV9" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="AW9" s="1">
-        <v>-119.707000</v>
+        <v>-119.70699999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>12365.330322</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.434814</v>
+        <v>3.4348139999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.071000</v>
+        <v>-137.071</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>12376.305338</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.437863</v>
+        <v>3.4378630000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1290.890000</v>
+        <v>1290.8900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-218.410000</v>
+        <v>-218.41</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>12387.157308</v>
@@ -2460,377 +2876,377 @@
         <v>3.440877</v>
       </c>
       <c r="BK9" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-354.253000</v>
+        <v>-354.25299999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>12398.471014</v>
+        <v>12398.471014000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.444020</v>
+        <v>3.4440200000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.567000</v>
+        <v>-576.56700000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>12409.696473</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.447138</v>
+        <v>3.4471379999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1601.320000</v>
+        <v>1601.32</v>
       </c>
       <c r="BV9" s="1">
-        <v>-829.119000</v>
+        <v>-829.11900000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>12420.787515</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.450219</v>
+        <v>3.4502190000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1751.320000</v>
+        <v>1751.32</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1104.000000</v>
+        <v>-1104</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>12432.475243</v>
+        <v>12432.475243000001</v>
       </c>
       <c r="CD9" s="1">
         <v>3.453465</v>
       </c>
       <c r="CE9" s="1">
-        <v>2168.980000</v>
+        <v>2168.98</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1774.420000</v>
+        <v>-1774.42</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>12260.626845</v>
+        <v>12260.626845000001</v>
       </c>
       <c r="B10" s="1">
-        <v>3.405730</v>
+        <v>3.4057300000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1142.010000</v>
+        <v>1142.01</v>
       </c>
       <c r="D10" s="1">
-        <v>-255.948000</v>
+        <v>-255.94800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>12271.033935</v>
+        <v>12271.033934999999</v>
       </c>
       <c r="G10" s="1">
-        <v>3.408621</v>
+        <v>3.4086210000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1164.060000</v>
+        <v>1164.06</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.014000</v>
+        <v>-215.01400000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>12281.528259</v>
+        <v>12281.528259000001</v>
       </c>
       <c r="L10" s="1">
-        <v>3.411536</v>
+        <v>3.4115359999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1191.620000</v>
+        <v>1191.6199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.218000</v>
+        <v>-149.21799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>12291.768164</v>
+        <v>12291.768163999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.414380</v>
+        <v>3.41438</v>
       </c>
       <c r="R10" s="1">
-        <v>1199.170000</v>
+        <v>1199.17</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.592000</v>
+        <v>-127.592</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>12302.321688</v>
       </c>
       <c r="V10" s="1">
-        <v>3.417312</v>
+        <v>3.4173119999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1206.430000</v>
+        <v>1206.43</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.767000</v>
+        <v>-106.767</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>12312.382922</v>
+        <v>12312.382922000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.420106</v>
+        <v>3.4201060000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.718900</v>
+        <v>-89.718900000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>12322.851451</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.423014</v>
+        <v>3.4230139999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1218.250000</v>
+        <v>1218.25</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.403500</v>
+        <v>-85.403499999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>12333.310104</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.425919</v>
+        <v>3.4259189999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.648000</v>
+        <v>-88.647999999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>12343.692351</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.428803</v>
+        <v>3.4288029999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1233.220000</v>
+        <v>1233.22</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.536000</v>
+        <v>-100.536</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>12354.999649</v>
+        <v>12354.999648999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.431944</v>
+        <v>3.4319440000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1243.080000</v>
+        <v>1243.08</v>
       </c>
       <c r="AW10" s="1">
-        <v>-119.769000</v>
+        <v>-119.76900000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>12366.046050</v>
+        <v>12366.046050000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.435013</v>
+        <v>3.4350130000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.075000</v>
+        <v>-137.07499999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>12376.694163</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.437971</v>
+        <v>3.4379710000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1290.860000</v>
+        <v>1290.8599999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-218.409000</v>
+        <v>-218.40899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>12387.535717</v>
+        <v>12387.535717000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>3.440982</v>
       </c>
       <c r="BK10" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL10" s="1">
-        <v>-354.262000</v>
+        <v>-354.262</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>12398.867815</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.444130</v>
+        <v>3.4441299999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.514000</v>
+        <v>-576.51400000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>12410.426583</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.447341</v>
+        <v>3.4473410000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1601.190000</v>
+        <v>1601.19</v>
       </c>
       <c r="BV10" s="1">
-        <v>-829.178000</v>
+        <v>-829.178</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>12420.914985</v>
+        <v>12420.914984999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.450254</v>
+        <v>3.4502540000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1751.290000</v>
+        <v>1751.29</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1104.040000</v>
+        <v>-1104.04</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>12432.696500</v>
+        <v>12432.6965</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.453527</v>
+        <v>3.4535269999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2169.280000</v>
+        <v>2169.2800000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1774.430000</v>
+        <v>-1774.43</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>12260.956190</v>
+        <v>12260.956190000001</v>
       </c>
       <c r="B11" s="1">
         <v>3.405821</v>
       </c>
       <c r="C11" s="1">
-        <v>1142.190000</v>
+        <v>1142.19</v>
       </c>
       <c r="D11" s="1">
-        <v>-256.550000</v>
+        <v>-256.55</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>12271.382094</v>
+        <v>12271.382094000001</v>
       </c>
       <c r="G11" s="1">
-        <v>3.408717</v>
+        <v>3.4087170000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1163.930000</v>
+        <v>1163.93</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.332000</v>
+        <v>-215.33199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>12281.961794</v>
+        <v>12281.961794000001</v>
       </c>
       <c r="L11" s="1">
-        <v>3.411656</v>
+        <v>3.4116559999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1191.630000</v>
+        <v>1191.6300000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.408000</v>
+        <v>-149.40799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>12292.065268</v>
@@ -2839,133 +3255,133 @@
         <v>3.414463</v>
       </c>
       <c r="R11" s="1">
-        <v>1199.230000</v>
+        <v>1199.23</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.546000</v>
+        <v>-127.54600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>12302.596859</v>
+        <v>12302.596858999999</v>
       </c>
       <c r="V11" s="1">
-        <v>3.417388</v>
+        <v>3.4173879999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1206.490000</v>
+        <v>1206.49</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.809000</v>
+        <v>-106.809</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>12312.731578</v>
+        <v>12312.731578000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.420203</v>
+        <v>3.4202029999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1213.860000</v>
+        <v>1213.8599999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.895300</v>
+        <v>-89.895300000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>12323.199679</v>
+        <v>12323.199678999999</v>
       </c>
       <c r="AF11" s="1">
         <v>3.423111</v>
       </c>
       <c r="AG11" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.768300</v>
+        <v>-85.768299999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>12333.658781</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.426016</v>
+        <v>3.4260160000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1225.370000</v>
+        <v>1225.3699999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.669200</v>
+        <v>-88.669200000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>12344.411551</v>
+        <v>12344.411550999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.429003</v>
+        <v>3.4290029999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1233.170000</v>
+        <v>1233.17</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.520000</v>
+        <v>-100.52</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>12355.303201</v>
+        <v>12355.303201000001</v>
       </c>
       <c r="AU11" s="1">
         <v>3.432029</v>
       </c>
       <c r="AV11" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="AW11" s="1">
-        <v>-119.708000</v>
+        <v>-119.708</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>12366.405154</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.435113</v>
+        <v>3.4351129999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1251.390000</v>
+        <v>1251.3900000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.076000</v>
+        <v>-137.07599999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>12377.054291</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.438071</v>
+        <v>3.4380709999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1290.860000</v>
+        <v>1290.8599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-218.418000</v>
+        <v>-218.41800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>12388.221684</v>
@@ -2974,76 +3390,76 @@
         <v>3.441173</v>
       </c>
       <c r="BK11" s="1">
-        <v>1359.260000</v>
+        <v>1359.26</v>
       </c>
       <c r="BL11" s="1">
-        <v>-354.255000</v>
+        <v>-354.255</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>12399.610325</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.444336</v>
+        <v>3.4443359999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.535000</v>
+        <v>-576.53499999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>12410.543143</v>
+        <v>12410.543143000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.447373</v>
+        <v>3.4473729999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1601.160000</v>
+        <v>1601.16</v>
       </c>
       <c r="BV11" s="1">
-        <v>-829.234000</v>
+        <v>-829.23400000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>12421.341048</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.450373</v>
+        <v>3.4503729999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1751.440000</v>
+        <v>1751.44</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1103.940000</v>
+        <v>-1103.94</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>12433.218746</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.453672</v>
+        <v>3.4536720000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2168.410000</v>
+        <v>2168.41</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1772.760000</v>
+        <v>-1772.76</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>12261.392011</v>
       </c>
@@ -3051,58 +3467,58 @@
         <v>3.405942</v>
       </c>
       <c r="C12" s="1">
-        <v>1142.330000</v>
+        <v>1142.33</v>
       </c>
       <c r="D12" s="1">
-        <v>-255.881000</v>
+        <v>-255.881</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>12271.816590</v>
+        <v>12271.81659</v>
       </c>
       <c r="G12" s="1">
-        <v>3.408838</v>
+        <v>3.4088379999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.290000</v>
+        <v>1163.29</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.613000</v>
+        <v>-214.613</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>12282.243024</v>
+        <v>12282.243023999999</v>
       </c>
       <c r="L12" s="1">
         <v>3.411734</v>
       </c>
       <c r="M12" s="1">
-        <v>1191.890000</v>
+        <v>1191.8900000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.983000</v>
+        <v>-148.983</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>12292.411475</v>
+        <v>12292.411475000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.414559</v>
+        <v>3.4145590000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1199.280000</v>
+        <v>1199.28</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.550000</v>
+        <v>-127.55</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>12302.943062</v>
@@ -3111,225 +3527,225 @@
         <v>3.417484</v>
       </c>
       <c r="W12" s="1">
-        <v>1206.500000</v>
+        <v>1206.5</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.872000</v>
+        <v>-106.872</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>12313.080792</v>
+        <v>12313.080792000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.420300</v>
+        <v>3.4203000000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.840600</v>
+        <v>-89.840599999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>12323.895033</v>
+        <v>12323.895033000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.423304</v>
+        <v>3.4233039999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.747200</v>
+        <v>-85.747200000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>12334.351209</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.426209</v>
+        <v>3.4262090000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1225.370000</v>
+        <v>1225.3699999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.653000</v>
+        <v>-88.653000000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>12344.771646</v>
+        <v>12344.771645999999</v>
       </c>
       <c r="AP12" s="1">
         <v>3.429103</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1233.180000</v>
+        <v>1233.18</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.534000</v>
+        <v>-100.53400000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>12355.709423</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.432142</v>
+        <v>3.4321419999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="AW12" s="1">
-        <v>-119.696000</v>
+        <v>-119.696</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>12366.763265</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.435212</v>
+        <v>3.4352119999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.049000</v>
+        <v>-137.04900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>12377.738276</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.438261</v>
+        <v>3.4382609999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1290.890000</v>
+        <v>1290.8900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-218.398000</v>
+        <v>-218.398</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>12388.662164</v>
+        <v>12388.662163999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.441295</v>
+        <v>3.4412950000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL12" s="1">
-        <v>-354.265000</v>
+        <v>-354.26499999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>12400.106326</v>
+        <v>12400.106325999999</v>
       </c>
       <c r="BO12" s="1">
         <v>3.444474</v>
       </c>
       <c r="BP12" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.587000</v>
+        <v>-576.58699999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>12410.954359</v>
+        <v>12410.954358999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.447487</v>
+        <v>3.4474870000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1601.200000</v>
+        <v>1601.2</v>
       </c>
       <c r="BV12" s="1">
-        <v>-829.198000</v>
+        <v>-829.19799999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>12421.755736</v>
+        <v>12421.755735999999</v>
       </c>
       <c r="BY12" s="1">
         <v>3.450488</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1751.340000</v>
+        <v>1751.34</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1103.980000</v>
+        <v>-1103.98</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>12433.738093</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.453816</v>
+        <v>3.4538160000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>2168.950000</v>
+        <v>2168.9499999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1773.310000</v>
+        <v>-1773.31</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>12261.665501</v>
+        <v>12261.665500999999</v>
       </c>
       <c r="B13" s="1">
         <v>3.406018</v>
       </c>
       <c r="C13" s="1">
-        <v>1142.180000</v>
+        <v>1142.18</v>
       </c>
       <c r="D13" s="1">
-        <v>-256.505000</v>
+        <v>-256.505</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>12272.090878</v>
+        <v>12272.090878000001</v>
       </c>
       <c r="G13" s="1">
-        <v>3.408914</v>
+        <v>3.4089140000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1163.900000</v>
+        <v>1163.9000000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.225000</v>
+        <v>-215.22499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>12282.585728</v>
@@ -3338,118 +3754,118 @@
         <v>3.411829</v>
       </c>
       <c r="M13" s="1">
-        <v>1191.300000</v>
+        <v>1191.3</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.460000</v>
+        <v>-149.46</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>12292.763138</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.414656</v>
+        <v>3.4146559999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1199.280000</v>
+        <v>1199.28</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.606000</v>
+        <v>-127.60599999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>12303.285269</v>
       </c>
       <c r="V13" s="1">
-        <v>3.417579</v>
+        <v>3.4175789999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.450000</v>
+        <v>1206.45</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.835000</v>
+        <v>-106.83499999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>12313.779127</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.420494</v>
+        <v>3.4204940000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1213.810000</v>
+        <v>1213.81</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.781600</v>
+        <v>-89.781599999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>12324.239257</v>
+        <v>12324.239256999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.423400</v>
+        <v>3.4234</v>
       </c>
       <c r="AG13" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.733800</v>
+        <v>-85.733800000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>12334.701390</v>
+        <v>12334.70139</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.426306</v>
+        <v>3.4263059999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.697500</v>
+        <v>-88.697500000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>12345.131247</v>
+        <v>12345.131246999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.429203</v>
+        <v>3.4292029999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1233.200000</v>
+        <v>1233.2</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.505000</v>
+        <v>-100.505</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>12356.380510</v>
+        <v>12356.380510000001</v>
       </c>
       <c r="AU13" s="1">
         <v>3.432328</v>
       </c>
       <c r="AV13" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="AW13" s="1">
-        <v>-119.701000</v>
+        <v>-119.70099999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>12367.429435</v>
@@ -3458,363 +3874,363 @@
         <v>3.435397</v>
       </c>
       <c r="BA13" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.058000</v>
+        <v>-137.05799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>12378.165027</v>
+        <v>12378.165026999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.438379</v>
+        <v>3.4383789999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1290.900000</v>
+        <v>1290.9000000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-218.395000</v>
+        <v>-218.39500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>12389.037108</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.441399</v>
+        <v>3.4413990000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL13" s="1">
-        <v>-354.244000</v>
+        <v>-354.24400000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>12400.523462</v>
+        <v>12400.523461999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.444590</v>
+        <v>3.4445899999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.552000</v>
+        <v>-576.55200000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>12411.384357</v>
+        <v>12411.384357000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.447607</v>
+        <v>3.4476070000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1601.150000</v>
+        <v>1601.15</v>
       </c>
       <c r="BV13" s="1">
-        <v>-829.221000</v>
+        <v>-829.221</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>12422.207063</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.450613</v>
+        <v>3.4506130000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1751.190000</v>
+        <v>1751.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1104.010000</v>
+        <v>-1104.01</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>12434.288617</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.453969</v>
+        <v>3.4539689999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>2169.130000</v>
+        <v>2169.13</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1774.430000</v>
+        <v>-1774.43</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>12262.007223</v>
+        <v>12262.007223000001</v>
       </c>
       <c r="B14" s="1">
-        <v>3.406113</v>
+        <v>3.4061129999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1142.080000</v>
+        <v>1142.08</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.188000</v>
+        <v>-256.18799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>12272.435629</v>
       </c>
       <c r="G14" s="1">
-        <v>3.409010</v>
+        <v>3.4090099999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1164.180000</v>
+        <v>1164.18</v>
       </c>
       <c r="I14" s="1">
-        <v>-214.879000</v>
+        <v>-214.87899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>12282.929951</v>
       </c>
       <c r="L14" s="1">
-        <v>3.411925</v>
+        <v>3.4119250000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1191.420000</v>
+        <v>1191.42</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.304000</v>
+        <v>-149.304</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>12293.455713</v>
+        <v>12293.455712999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.414849</v>
+        <v>3.4148489999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1199.280000</v>
+        <v>1199.28</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.614000</v>
+        <v>-127.614</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>12303.973716</v>
       </c>
       <c r="V14" s="1">
-        <v>3.417770</v>
+        <v>3.41777</v>
       </c>
       <c r="W14" s="1">
-        <v>1206.510000</v>
+        <v>1206.51</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.792000</v>
+        <v>-106.792</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>12314.126328</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.420591</v>
+        <v>3.4205909999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.754800</v>
+        <v>-89.754800000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>12324.584506</v>
+        <v>12324.584505999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.423496</v>
+        <v>3.4234960000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1218.480000</v>
+        <v>1218.48</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.386800</v>
+        <v>-85.386799999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>12335.053036</v>
+        <v>12335.053035999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.426404</v>
+        <v>3.4264039999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.675700</v>
+        <v>-88.675700000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>12345.800349</v>
+        <v>12345.800348999999</v>
       </c>
       <c r="AP14" s="1">
         <v>3.429389</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1233.170000</v>
+        <v>1233.17</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.550000</v>
+        <v>-100.55</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>12356.850718</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.432459</v>
+        <v>3.4324590000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1243.030000</v>
+        <v>1243.03</v>
       </c>
       <c r="AW14" s="1">
-        <v>-119.709000</v>
+        <v>-119.709</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>12367.840577</v>
+        <v>12367.840577000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>3.435511</v>
       </c>
       <c r="BA14" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.074000</v>
+        <v>-137.07400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>12378.530385</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.438481</v>
+        <v>3.4384809999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1290.890000</v>
+        <v>1290.8900000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-218.416000</v>
+        <v>-218.416</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>12389.413572</v>
+        <v>12389.413571999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.441504</v>
+        <v>3.4415040000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL14" s="1">
-        <v>-354.286000</v>
+        <v>-354.286</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>12400.921779</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.444700</v>
+        <v>3.4447000000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.554000</v>
+        <v>-576.55399999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>12411.803973</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.447723</v>
+        <v>3.4477229999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1601.190000</v>
+        <v>1601.19</v>
       </c>
       <c r="BV14" s="1">
-        <v>-829.218000</v>
+        <v>-829.21799999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>12422.628200</v>
+        <v>12422.628199999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.450730</v>
+        <v>3.4507300000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1751.220000</v>
+        <v>1751.22</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1104.000000</v>
+        <v>-1104</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>12434.829783</v>
+        <v>12434.829782999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.454119</v>
+        <v>3.4541189999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2168.070000</v>
+        <v>2168.0700000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1772.480000</v>
+        <v>-1772.48</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>12262.350939</v>
       </c>
@@ -3822,43 +4238,43 @@
         <v>3.406209</v>
       </c>
       <c r="C15" s="1">
-        <v>1142.550000</v>
+        <v>1142.55</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.013000</v>
+        <v>-256.01299999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>12273.123089</v>
+        <v>12273.123089000001</v>
       </c>
       <c r="G15" s="1">
-        <v>3.409201</v>
+        <v>3.4092009999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1163.990000</v>
+        <v>1163.99</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.828000</v>
+        <v>-214.828</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>12283.625342</v>
+        <v>12283.625341999999</v>
       </c>
       <c r="L15" s="1">
         <v>3.412118</v>
       </c>
       <c r="M15" s="1">
-        <v>1191.590000</v>
+        <v>1191.5899999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.408000</v>
+        <v>-149.40799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>12293.806225</v>
@@ -3867,163 +4283,163 @@
         <v>3.414946</v>
       </c>
       <c r="R15" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.569000</v>
+        <v>-127.569</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>12304.322404</v>
       </c>
       <c r="V15" s="1">
-        <v>3.417867</v>
+        <v>3.4178670000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1206.480000</v>
+        <v>1206.48</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.843000</v>
+        <v>-106.843</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>12314.474519</v>
+        <v>12314.474518999999</v>
       </c>
       <c r="AA15" s="1">
         <v>3.420687</v>
       </c>
       <c r="AB15" s="1">
-        <v>1213.890000</v>
+        <v>1213.8900000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.842500</v>
+        <v>-89.842500000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>12325.255065</v>
+        <v>12325.255064999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.423682</v>
+        <v>3.4236819999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.337700</v>
+        <v>-85.337699999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>12335.709771</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.426586</v>
+        <v>3.4265859999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.662200</v>
+        <v>-88.662199999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>12346.236331</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.429510</v>
+        <v>3.4295100000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1233.210000</v>
+        <v>1233.21</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.519000</v>
+        <v>-100.51900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>12357.202877</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.432556</v>
+        <v>3.4325559999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1243.030000</v>
+        <v>1243.03</v>
       </c>
       <c r="AW15" s="1">
-        <v>-119.731000</v>
+        <v>-119.73099999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>12368.225471</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.435618</v>
+        <v>3.4356179999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.043000</v>
+        <v>-137.04300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>12378.889953</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.438581</v>
+        <v>3.4385810000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1290.870000</v>
+        <v>1290.8699999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-218.398000</v>
+        <v>-218.398</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>12389.838148</v>
+        <v>12389.838148000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.441622</v>
+        <v>3.4416220000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1359.230000</v>
+        <v>1359.23</v>
       </c>
       <c r="BL15" s="1">
-        <v>-354.231000</v>
+        <v>-354.23099999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>12401.344339</v>
+        <v>12401.344338999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.444818</v>
+        <v>3.4448180000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.571000</v>
+        <v>-576.57100000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>12412.217637</v>
@@ -4032,60 +4448,60 @@
         <v>3.447838</v>
       </c>
       <c r="BU15" s="1">
-        <v>1601.040000</v>
+        <v>1601.04</v>
       </c>
       <c r="BV15" s="1">
-        <v>-829.256000</v>
+        <v>-829.25599999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>12423.050758</v>
+        <v>12423.050757999999</v>
       </c>
       <c r="BY15" s="1">
         <v>3.450847</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1751.250000</v>
+        <v>1751.25</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1103.960000</v>
+        <v>-1103.96</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>12435.335174</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.454260</v>
+        <v>3.4542600000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2166.130000</v>
+        <v>2166.13</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1773.550000</v>
+        <v>-1773.55</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>12263.032442</v>
       </c>
       <c r="B16" s="1">
-        <v>3.406398</v>
+        <v>3.4063979999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1142.480000</v>
+        <v>1142.48</v>
       </c>
       <c r="D16" s="1">
-        <v>-256.041000</v>
+        <v>-256.041</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>12273.468797</v>
@@ -4094,118 +4510,118 @@
         <v>3.409297</v>
       </c>
       <c r="H16" s="1">
-        <v>1163.500000</v>
+        <v>1163.5</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.277000</v>
+        <v>-215.27699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>12283.970558</v>
+        <v>12283.970558000001</v>
       </c>
       <c r="L16" s="1">
-        <v>3.412214</v>
+        <v>3.4122140000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1191.400000</v>
+        <v>1191.4000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.550000</v>
+        <v>-149.55000000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>12294.156433</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.415043</v>
+        <v>3.4150429999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1199.210000</v>
+        <v>1199.21</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.511000</v>
+        <v>-127.511</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>12304.673075</v>
+        <v>12304.673075000001</v>
       </c>
       <c r="V16" s="1">
-        <v>3.417965</v>
+        <v>3.4179650000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1206.590000</v>
+        <v>1206.5899999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.814000</v>
+        <v>-106.81399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>12315.130724</v>
+        <v>12315.130724000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.420870</v>
+        <v>3.4208699999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1213.790000</v>
+        <v>1213.79</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.779300</v>
+        <v>-89.779300000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>12325.613672</v>
+        <v>12325.613671999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.423782</v>
+        <v>3.4237820000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1218.450000</v>
+        <v>1218.45</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.300500</v>
+        <v>-85.3005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>12336.099593</v>
+        <v>12336.099593000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.426694</v>
+        <v>3.4266939999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.680000</v>
+        <v>-88.68</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>12346.595931</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.429610</v>
+        <v>3.4296099999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1233.190000</v>
+        <v>1233.19</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.514000</v>
+        <v>-100.514</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>12357.567437</v>
@@ -4214,13 +4630,13 @@
         <v>3.432658</v>
       </c>
       <c r="AV16" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="AW16" s="1">
-        <v>-119.713000</v>
+        <v>-119.71299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>12368.584111</v>
@@ -4229,43 +4645,43 @@
         <v>3.435718</v>
       </c>
       <c r="BA16" s="1">
-        <v>1251.390000</v>
+        <v>1251.3900000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.051000</v>
+        <v>-137.05099999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>12379.314684</v>
+        <v>12379.314684000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.438699</v>
+        <v>3.4386990000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1290.880000</v>
+        <v>1290.8800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-218.391000</v>
+        <v>-218.39099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>12390.169476</v>
+        <v>12390.169475999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.441714</v>
+        <v>3.4417140000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL16" s="1">
-        <v>-354.246000</v>
+        <v>-354.24599999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>12401.740178</v>
@@ -4274,43 +4690,43 @@
         <v>3.444928</v>
       </c>
       <c r="BP16" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.643000</v>
+        <v>-576.64300000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>12412.632788</v>
+        <v>12412.632788000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.447954</v>
+        <v>3.4479540000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1600.990000</v>
+        <v>1600.99</v>
       </c>
       <c r="BV16" s="1">
-        <v>-829.224000</v>
+        <v>-829.22400000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>12423.499173</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.450972</v>
+        <v>3.4509720000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1751.350000</v>
+        <v>1751.35</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1103.930000</v>
+        <v>-1103.93</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>12436.178372</v>
@@ -4319,544 +4735,544 @@
         <v>3.454494</v>
       </c>
       <c r="CE16" s="1">
-        <v>2167.030000</v>
+        <v>2167.0300000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1775.310000</v>
+        <v>-1775.31</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>12263.377689</v>
+        <v>12263.377689000001</v>
       </c>
       <c r="B17" s="1">
-        <v>3.406494</v>
+        <v>3.4064939999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1142.180000</v>
+        <v>1142.18</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.918000</v>
+        <v>-255.91800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>12273.814476</v>
       </c>
       <c r="G17" s="1">
-        <v>3.409393</v>
+        <v>3.4093930000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1164.040000</v>
+        <v>1164.04</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.781000</v>
+        <v>-214.78100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>12284.316269</v>
+        <v>12284.316269000001</v>
       </c>
       <c r="L17" s="1">
-        <v>3.412310</v>
+        <v>3.4123100000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1191.830000</v>
+        <v>1191.83</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.412000</v>
+        <v>-149.41200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>12294.805717</v>
+        <v>12294.805716999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.415224</v>
+        <v>3.4152239999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1199.300000</v>
+        <v>1199.3</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.554000</v>
+        <v>-127.554</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>12305.252905</v>
+        <v>12305.252904999999</v>
       </c>
       <c r="V17" s="1">
         <v>3.418126</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.520000</v>
+        <v>1206.52</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.760000</v>
+        <v>-106.76</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>12315.521573</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.420978</v>
+        <v>3.4209779999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.856700</v>
+        <v>-89.856700000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>12325.956407</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.423877</v>
+        <v>3.4238770000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1218.420000</v>
+        <v>1218.42</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.320800</v>
+        <v>-85.320800000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>12336.445833</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.426791</v>
+        <v>3.4267910000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.697800</v>
+        <v>-88.697800000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>12346.958540</v>
+        <v>12346.95854</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.429711</v>
+        <v>3.4297110000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1233.200000</v>
+        <v>1233.2</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.510000</v>
+        <v>-100.51</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>12357.992508</v>
+        <v>12357.992507999999</v>
       </c>
       <c r="AU17" s="1">
         <v>3.432776</v>
       </c>
       <c r="AV17" s="1">
-        <v>1243.050000</v>
+        <v>1243.05</v>
       </c>
       <c r="AW17" s="1">
-        <v>-119.715000</v>
+        <v>-119.715</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>12369.017619</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.435838</v>
+        <v>3.4358379999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.056000</v>
+        <v>-137.05600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>12379.610672</v>
+        <v>12379.610672000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.438781</v>
+        <v>3.4387810000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1290.880000</v>
+        <v>1290.8800000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-218.391000</v>
+        <v>-218.39099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>12390.561313</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.441823</v>
+        <v>3.4418229999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL17" s="1">
-        <v>-354.247000</v>
+        <v>-354.24700000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>12402.159793</v>
+        <v>12402.159793000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.445044</v>
+        <v>3.4450440000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.599000</v>
+        <v>-576.59900000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>12413.047939</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.448069</v>
+        <v>3.4480689999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1600.870000</v>
+        <v>1600.87</v>
       </c>
       <c r="BV17" s="1">
-        <v>-829.196000</v>
+        <v>-829.19600000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>12423.928182</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.451091</v>
+        <v>3.4510909999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1751.330000</v>
+        <v>1751.33</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1103.770000</v>
+        <v>-1103.77</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>12436.402106</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.454556</v>
+        <v>3.4545560000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2168.530000</v>
+        <v>2168.5300000000002</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1772.810000</v>
+        <v>-1772.81</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>12263.716921</v>
+        <v>12263.716920999999</v>
       </c>
       <c r="B18" s="1">
-        <v>3.406588</v>
+        <v>3.4065880000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1142.720000</v>
+        <v>1142.72</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.427000</v>
+        <v>-256.42700000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>12274.475180</v>
+        <v>12274.475179999999</v>
       </c>
       <c r="G18" s="1">
-        <v>3.409576</v>
+        <v>3.4095759999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1164.240000</v>
+        <v>1164.24</v>
       </c>
       <c r="I18" s="1">
-        <v>-214.785000</v>
+        <v>-214.785</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>12284.976941</v>
+        <v>12284.976941000001</v>
       </c>
       <c r="L18" s="1">
-        <v>3.412494</v>
+        <v>3.4124940000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1191.860000</v>
+        <v>1191.8599999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.221000</v>
+        <v>-149.221</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>12295.203455</v>
+        <v>12295.203455000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.415334</v>
+        <v>3.4153340000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1199.330000</v>
+        <v>1199.33</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.632000</v>
+        <v>-127.63200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>12305.362514</v>
       </c>
       <c r="V18" s="1">
-        <v>3.418156</v>
+        <v>3.4181560000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.540000</v>
+        <v>1206.54</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.839000</v>
+        <v>-106.839</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>12315.871284</v>
+        <v>12315.871284000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.421075</v>
+        <v>3.4210750000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1214.110000</v>
+        <v>1214.1099999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.725800</v>
+        <v>-89.725800000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>12326.302120</v>
+        <v>12326.30212</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.423973</v>
+        <v>3.4239730000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.306700</v>
+        <v>-85.306700000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>12336.799448</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.426889</v>
+        <v>3.4268890000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.658800</v>
+        <v>-88.658799999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>12347.380641</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.429828</v>
+        <v>3.4298280000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1233.190000</v>
+        <v>1233.19</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.499000</v>
+        <v>-100.499</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>12358.297052</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.432860</v>
+        <v>3.4328599999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="AW18" s="1">
-        <v>-119.719000</v>
+        <v>-119.71899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>12369.302816</v>
+        <v>12369.302815999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.435917</v>
+        <v>3.4359169999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.054000</v>
+        <v>-137.054</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>12379.972223</v>
+        <v>12379.972223000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.438881</v>
+        <v>3.4388809999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1290.890000</v>
+        <v>1290.8900000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-218.418000</v>
+        <v>-218.41800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>12390.935330</v>
+        <v>12390.93533</v>
       </c>
       <c r="BJ18" s="1">
         <v>3.441926</v>
       </c>
       <c r="BK18" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL18" s="1">
-        <v>-354.240000</v>
+        <v>-354.24</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>12402.561521</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.445156</v>
+        <v>3.4451559999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.573000</v>
+        <v>-576.57299999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>12413.483427</v>
+        <v>12413.483426999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.448190</v>
+        <v>3.4481899999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1600.770000</v>
+        <v>1600.77</v>
       </c>
       <c r="BV18" s="1">
-        <v>-829.184000</v>
+        <v>-829.18399999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>12424.351764</v>
+        <v>12424.351763999999</v>
       </c>
       <c r="BY18" s="1">
         <v>3.451209</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1751.140000</v>
+        <v>1751.14</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1103.910000</v>
+        <v>-1103.9100000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>12436.935799</v>
+        <v>12436.935799000001</v>
       </c>
       <c r="CD18" s="1">
         <v>3.454704</v>
       </c>
       <c r="CE18" s="1">
-        <v>2166.470000</v>
+        <v>2166.4699999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1774.120000</v>
+        <v>-1774.12</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>12264.367672</v>
       </c>
       <c r="B19" s="1">
-        <v>3.406769</v>
+        <v>3.4067690000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1142.290000</v>
+        <v>1142.29</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.794000</v>
+        <v>-255.79400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>12274.850618</v>
@@ -4865,270 +5281,270 @@
         <v>3.409681</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.060000</v>
+        <v>1164.06</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.334000</v>
+        <v>-215.334</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>12285.351420</v>
+        <v>12285.351420000001</v>
       </c>
       <c r="L19" s="1">
         <v>3.412598</v>
       </c>
       <c r="M19" s="1">
-        <v>1191.520000</v>
+        <v>1191.52</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.345000</v>
+        <v>-149.345</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>12295.550656</v>
+        <v>12295.550655999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.415431</v>
+        <v>3.4154309999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1199.290000</v>
+        <v>1199.29</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.640000</v>
+        <v>-127.64</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>12305.704766</v>
+        <v>12305.704766000001</v>
       </c>
       <c r="V19" s="1">
-        <v>3.418251</v>
+        <v>3.4182510000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1206.450000</v>
+        <v>1206.45</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.744000</v>
+        <v>-106.744</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>12316.218947</v>
+        <v>12316.218946999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.421172</v>
+        <v>3.4211719999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1213.890000</v>
+        <v>1213.8900000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.876100</v>
+        <v>-89.876099999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>12326.718762</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.424089</v>
+        <v>3.4240889999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1218.450000</v>
+        <v>1218.45</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.348300</v>
+        <v>-85.348299999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>12337.236423</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.427010</v>
+        <v>3.4270100000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.674200</v>
+        <v>-88.674199999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>12347.678230</v>
+        <v>12347.67823</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.429911</v>
+        <v>3.4299110000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1233.170000</v>
+        <v>1233.17</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.519000</v>
+        <v>-100.51900000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>12358.660653</v>
+        <v>12358.660653000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.432961</v>
+        <v>3.4329610000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="AW19" s="1">
-        <v>-119.676000</v>
+        <v>-119.676</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>12369.661885</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.436017</v>
+        <v>3.4360170000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1251.360000</v>
+        <v>1251.3599999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.056000</v>
+        <v>-137.05600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>12380.332356</v>
+        <v>12380.332356000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.438981</v>
+        <v>3.4389810000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1290.870000</v>
+        <v>1290.8699999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-218.436000</v>
+        <v>-218.43600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>12391.686271</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.442135</v>
+        <v>3.4421349999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL19" s="1">
-        <v>-354.262000</v>
+        <v>-354.262</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>12402.981137</v>
+        <v>12402.981137000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.445273</v>
+        <v>3.4452729999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.620000</v>
+        <v>-576.62</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>12413.899074</v>
+        <v>12413.899074000001</v>
       </c>
       <c r="BT19" s="1">
         <v>3.448305</v>
       </c>
       <c r="BU19" s="1">
-        <v>1600.690000</v>
+        <v>1600.69</v>
       </c>
       <c r="BV19" s="1">
-        <v>-829.217000</v>
+        <v>-829.21699999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>12424.771914</v>
+        <v>12424.771914000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.451326</v>
+        <v>3.4513259999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1751.260000</v>
+        <v>1751.26</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1103.930000</v>
+        <v>-1103.93</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>12437.785906</v>
+        <v>12437.785905999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.454941</v>
+        <v>3.4549409999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>2167.960000</v>
+        <v>2167.96</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1772.940000</v>
+        <v>-1772.94</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>12264.740664</v>
+        <v>12264.740664000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.406872</v>
+        <v>3.4068719999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1142.550000</v>
+        <v>1142.55</v>
       </c>
       <c r="D20" s="1">
-        <v>-256.023000</v>
+        <v>-256.02300000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>12275.200298</v>
       </c>
       <c r="G20" s="1">
-        <v>3.409778</v>
+        <v>3.4097780000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1164.040000</v>
+        <v>1164.04</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.107000</v>
+        <v>-215.107</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>12285.696141</v>
@@ -5137,28 +5553,28 @@
         <v>3.412693</v>
       </c>
       <c r="M20" s="1">
-        <v>1191.490000</v>
+        <v>1191.49</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.469000</v>
+        <v>-149.46899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>12295.898848</v>
+        <v>12295.898848000001</v>
       </c>
       <c r="Q20" s="1">
         <v>3.415527</v>
       </c>
       <c r="R20" s="1">
-        <v>1199.280000</v>
+        <v>1199.28</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.643000</v>
+        <v>-127.643</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>12306.134785</v>
@@ -5167,28 +5583,28 @@
         <v>3.418371</v>
       </c>
       <c r="W20" s="1">
-        <v>1206.450000</v>
+        <v>1206.45</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.764000</v>
+        <v>-106.764</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>12316.646003</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.421291</v>
+        <v>3.4212910000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1213.680000</v>
+        <v>1213.68</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.925200</v>
+        <v>-89.925200000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>12326.997013</v>
@@ -5197,58 +5613,58 @@
         <v>3.424166</v>
       </c>
       <c r="AG20" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.374700</v>
+        <v>-85.374700000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>12337.507239</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.427085</v>
+        <v>3.4270849999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.663300</v>
+        <v>-88.663300000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>12348.038795</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.430011</v>
+        <v>3.4300109999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1233.180000</v>
+        <v>1233.18</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.525000</v>
+        <v>-100.52500000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>12359.027658</v>
+        <v>12359.027658000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.433063</v>
+        <v>3.4330630000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="AW20" s="1">
-        <v>-119.721000</v>
+        <v>-119.721</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>12370.023965</v>
@@ -5257,106 +5673,106 @@
         <v>3.436118</v>
       </c>
       <c r="BA20" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.070000</v>
+        <v>-137.07</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>12381.055982</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.439182</v>
+        <v>3.4391820000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1290.920000</v>
+        <v>1290.92</v>
       </c>
       <c r="BG20" s="1">
-        <v>-218.427000</v>
+        <v>-218.42699999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>12392.060737</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.442239</v>
+        <v>3.4422389999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL20" s="1">
-        <v>-354.250000</v>
+        <v>-354.25</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>12403.377938</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.445383</v>
+        <v>3.4453830000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.556000</v>
+        <v>-576.55600000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>12414.331091</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.448425</v>
+        <v>3.4484249999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1600.690000</v>
+        <v>1600.69</v>
       </c>
       <c r="BV20" s="1">
-        <v>-829.024000</v>
+        <v>-829.024</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>12425.543155</v>
+        <v>12425.543154999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.451540</v>
+        <v>3.4515400000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1751.320000</v>
+        <v>1751.32</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1103.970000</v>
+        <v>-1103.97</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>12438.014102</v>
+        <v>12438.014101999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.455004</v>
+        <v>3.4550040000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>2168.500000</v>
+        <v>2168.5</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1772.910000</v>
+        <v>-1772.91</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>12265.085383</v>
       </c>
@@ -5364,103 +5780,103 @@
         <v>3.406968</v>
       </c>
       <c r="C21" s="1">
-        <v>1142.440000</v>
+        <v>1142.44</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.922000</v>
+        <v>-255.922</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>12275.543529</v>
       </c>
       <c r="G21" s="1">
-        <v>3.409873</v>
+        <v>3.4098730000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.680000</v>
+        <v>1163.68</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.128000</v>
+        <v>-215.12799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>12286.046843</v>
       </c>
       <c r="L21" s="1">
-        <v>3.412791</v>
+        <v>3.4127909999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1191.490000</v>
+        <v>1191.49</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.499000</v>
+        <v>-149.499</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>12296.326929</v>
+        <v>12296.326929000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.415646</v>
+        <v>3.4156460000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.580000</v>
+        <v>-127.58</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>12306.413569</v>
       </c>
       <c r="V21" s="1">
-        <v>3.418448</v>
+        <v>3.4184480000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1206.560000</v>
+        <v>1206.56</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.799000</v>
+        <v>-106.79900000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>12316.927731</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.421369</v>
+        <v>3.4213689999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.839700</v>
+        <v>-89.839699999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>12327.340277</v>
+        <v>12327.340276999999</v>
       </c>
       <c r="AF21" s="1">
         <v>3.424261</v>
       </c>
       <c r="AG21" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.388900</v>
+        <v>-85.388900000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>12337.851959</v>
@@ -5469,58 +5885,58 @@
         <v>3.427181</v>
       </c>
       <c r="AL21" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.675000</v>
+        <v>-88.674999999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>12348.397433</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.430110</v>
+        <v>3.43011</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1233.180000</v>
+        <v>1233.18</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.527000</v>
+        <v>-100.527</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>12359.762730</v>
+        <v>12359.76273</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.433267</v>
+        <v>3.4332669999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1243.050000</v>
+        <v>1243.05</v>
       </c>
       <c r="AW21" s="1">
-        <v>-119.692000</v>
+        <v>-119.69199999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>12370.742669</v>
+        <v>12370.742668999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.436317</v>
+        <v>3.4363169999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.039000</v>
+        <v>-137.03899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>12381.416077</v>
@@ -5529,28 +5945,28 @@
         <v>3.439282</v>
       </c>
       <c r="BF21" s="1">
-        <v>1290.910000</v>
+        <v>1290.9100000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-218.415000</v>
+        <v>-218.41499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>12392.436223</v>
+        <v>12392.436223000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.442343</v>
+        <v>3.4423430000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL21" s="1">
-        <v>-354.252000</v>
+        <v>-354.25200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>12404.109535</v>
@@ -5559,135 +5975,135 @@
         <v>3.445586</v>
       </c>
       <c r="BP21" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.621000</v>
+        <v>-576.62099999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>12415.039873</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.448622</v>
+        <v>3.4486219999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1600.640000</v>
+        <v>1600.64</v>
       </c>
       <c r="BV21" s="1">
-        <v>-829.099000</v>
+        <v>-829.09900000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>12425.664179</v>
+        <v>12425.664178999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.451573</v>
+        <v>3.4515729999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1751.350000</v>
+        <v>1751.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1103.840000</v>
+        <v>-1103.8399999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>12438.535858</v>
+        <v>12438.535857999999</v>
       </c>
       <c r="CD21" s="1">
         <v>3.455149</v>
       </c>
       <c r="CE21" s="1">
-        <v>2166.470000</v>
+        <v>2166.4699999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1773.370000</v>
+        <v>-1773.37</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>12265.428615</v>
+        <v>12265.428615000001</v>
       </c>
       <c r="B22" s="1">
-        <v>3.407064</v>
+        <v>3.4070640000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1142.310000</v>
+        <v>1142.31</v>
       </c>
       <c r="D22" s="1">
-        <v>-256.080000</v>
+        <v>-256.08</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>12275.961173</v>
       </c>
       <c r="G22" s="1">
-        <v>3.409989</v>
+        <v>3.4099889999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1163.510000</v>
+        <v>1163.51</v>
       </c>
       <c r="I22" s="1">
-        <v>-215.234000</v>
+        <v>-215.23400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>12286.476875</v>
       </c>
       <c r="L22" s="1">
-        <v>3.412910</v>
+        <v>3.4129100000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1191.340000</v>
+        <v>1191.3399999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.392000</v>
+        <v>-149.392</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>12296.607668</v>
+        <v>12296.607668000001</v>
       </c>
       <c r="Q22" s="1">
         <v>3.415724</v>
       </c>
       <c r="R22" s="1">
-        <v>1199.290000</v>
+        <v>1199.29</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.555000</v>
+        <v>-127.55500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>12306.748832</v>
+        <v>12306.748831999999</v>
       </c>
       <c r="V22" s="1">
-        <v>3.418541</v>
+        <v>3.4185409999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.470000</v>
+        <v>1206.47</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.768000</v>
+        <v>-106.768</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>12317.275459</v>
@@ -5696,58 +6112,58 @@
         <v>3.421465</v>
       </c>
       <c r="AB22" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.934200</v>
+        <v>-89.934200000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>12327.686452</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.424357</v>
+        <v>3.4243570000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.320600</v>
+        <v>-85.320599999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>12338.436744</v>
+        <v>12338.436744000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.427344</v>
+        <v>3.4273440000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.681600</v>
+        <v>-88.681600000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>12349.124040</v>
+        <v>12349.124040000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.430312</v>
+        <v>3.4303119999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1233.180000</v>
+        <v>1233.18</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.498000</v>
+        <v>-100.498</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>12360.143162</v>
@@ -5756,58 +6172,58 @@
         <v>3.433373</v>
       </c>
       <c r="AV22" s="1">
-        <v>1243.060000</v>
+        <v>1243.06</v>
       </c>
       <c r="AW22" s="1">
-        <v>-119.717000</v>
+        <v>-119.717</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>12371.137025</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.436427</v>
+        <v>3.4364270000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.082000</v>
+        <v>-137.08199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>12381.779645</v>
+        <v>12381.779645000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.439383</v>
+        <v>3.4393829999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1290.840000</v>
+        <v>1290.8399999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-218.396000</v>
+        <v>-218.39599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>12393.129103</v>
+        <v>12393.129102999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>3.442536</v>
       </c>
       <c r="BK22" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL22" s="1">
-        <v>-354.266000</v>
+        <v>-354.26600000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>12404.623887</v>
@@ -5816,150 +6232,150 @@
         <v>3.445729</v>
       </c>
       <c r="BP22" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.551000</v>
+        <v>-576.55100000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>12415.174289</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.448660</v>
+        <v>3.4486599999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1600.600000</v>
+        <v>1600.6</v>
       </c>
       <c r="BV22" s="1">
-        <v>-829.079000</v>
+        <v>-829.07899999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>12426.082307</v>
+        <v>12426.082307000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.451690</v>
+        <v>3.4516900000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1751.220000</v>
+        <v>1751.22</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1104.020000</v>
+        <v>-1104.02</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>12439.051697</v>
+        <v>12439.051697000001</v>
       </c>
       <c r="CD22" s="1">
         <v>3.455292</v>
       </c>
       <c r="CE22" s="1">
-        <v>2167.260000</v>
+        <v>2167.2600000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1772.940000</v>
+        <v>-1772.94</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>12265.848230</v>
+        <v>12265.84823</v>
       </c>
       <c r="B23" s="1">
-        <v>3.407180</v>
+        <v>3.4071799999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1142.330000</v>
+        <v>1142.33</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.402000</v>
+        <v>-256.40199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>12276.242425</v>
       </c>
       <c r="G23" s="1">
-        <v>3.410067</v>
+        <v>3.4100670000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.980000</v>
+        <v>1163.98</v>
       </c>
       <c r="I23" s="1">
-        <v>-214.963000</v>
+        <v>-214.96299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>12286.755595</v>
+        <v>12286.755595000001</v>
       </c>
       <c r="L23" s="1">
-        <v>3.412988</v>
+        <v>3.4129879999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1191.780000</v>
+        <v>1191.78</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.106000</v>
+        <v>-149.10599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>12296.955438</v>
+        <v>12296.955438000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.415821</v>
+        <v>3.4158210000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1199.300000</v>
+        <v>1199.3</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.582000</v>
+        <v>-127.58199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>12307.101032</v>
       </c>
       <c r="V23" s="1">
-        <v>3.418639</v>
+        <v>3.4186390000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1206.540000</v>
+        <v>1206.54</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.770000</v>
+        <v>-106.77</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>12317.626098</v>
+        <v>12317.626098000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.421563</v>
+        <v>3.4215629999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.831800</v>
+        <v>-89.831800000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>12328.369244</v>
@@ -5968,58 +6384,58 @@
         <v>3.424547</v>
       </c>
       <c r="AG23" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.357000</v>
+        <v>-85.356999999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>12338.548869</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.427375</v>
+        <v>3.4273750000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.684000</v>
+        <v>-88.683999999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>12349.502487</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.430417</v>
+        <v>3.4304169999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1233.180000</v>
+        <v>1233.18</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.523000</v>
+        <v>-100.523</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>12360.509219</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.433475</v>
+        <v>3.4334750000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="AW23" s="1">
-        <v>-119.700000</v>
+        <v>-119.7</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>12371.762476</v>
@@ -6028,73 +6444,73 @@
         <v>3.436601</v>
       </c>
       <c r="BA23" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.069000</v>
+        <v>-137.06899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>12382.456221</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.439571</v>
+        <v>3.4395709999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1290.850000</v>
+        <v>1290.8499999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-218.446000</v>
+        <v>-218.446</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>12393.561647</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.442656</v>
+        <v>3.4426559999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1359.240000</v>
+        <v>1359.24</v>
       </c>
       <c r="BL23" s="1">
-        <v>-354.245000</v>
+        <v>-354.245</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>12405.033086</v>
+        <v>12405.033085999999</v>
       </c>
       <c r="BO23" s="1">
         <v>3.445843</v>
       </c>
       <c r="BP23" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.575000</v>
+        <v>-576.57500000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>12415.612256</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.448781</v>
+        <v>3.4487809999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1600.570000</v>
+        <v>1600.57</v>
       </c>
       <c r="BV23" s="1">
-        <v>-829.033000</v>
+        <v>-829.03300000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>12426.538626</v>
@@ -6103,75 +6519,75 @@
         <v>3.451816</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1751.230000</v>
+        <v>1751.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1103.890000</v>
+        <v>-1103.8900000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>12439.606721</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.455446</v>
+        <v>3.4554459999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2168.880000</v>
+        <v>2168.88</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1773.380000</v>
+        <v>-1773.38</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>12266.127478</v>
       </c>
       <c r="B24" s="1">
-        <v>3.407258</v>
+        <v>3.4072580000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1142.290000</v>
+        <v>1142.29</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.338000</v>
+        <v>-256.33800000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>12276.586616</v>
+        <v>12276.586616000001</v>
       </c>
       <c r="G24" s="1">
-        <v>3.410163</v>
+        <v>3.4101629999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1164.120000</v>
+        <v>1164.1199999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.211000</v>
+        <v>-215.21100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>12287.101834</v>
+        <v>12287.101833999999</v>
       </c>
       <c r="L24" s="1">
         <v>3.413084</v>
       </c>
       <c r="M24" s="1">
-        <v>1191.450000</v>
+        <v>1191.45</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.456000</v>
+        <v>-149.45599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>12297.303053</v>
@@ -6180,103 +6596,103 @@
         <v>3.415918</v>
       </c>
       <c r="R24" s="1">
-        <v>1199.330000</v>
+        <v>1199.33</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.655000</v>
+        <v>-127.655</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>12307.788943</v>
       </c>
       <c r="V24" s="1">
-        <v>3.418830</v>
+        <v>3.4188299999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1206.530000</v>
+        <v>1206.53</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.847000</v>
+        <v>-106.84699999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>12318.321985</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.421756</v>
+        <v>3.4217559999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.890500</v>
+        <v>-89.890500000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>12328.717139</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.424644</v>
+        <v>3.4246439999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1218.430000</v>
+        <v>1218.43</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.279300</v>
+        <v>-85.279300000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>12338.898022</v>
+        <v>12338.898021999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.427472</v>
+        <v>3.4274719999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.680700</v>
+        <v>-88.680700000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>12349.862119</v>
+        <v>12349.862118999999</v>
       </c>
       <c r="AP24" s="1">
         <v>3.430517</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1233.200000</v>
+        <v>1233.2</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.522000</v>
+        <v>-100.52200000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>12361.178808</v>
+        <v>12361.178808000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.433661</v>
+        <v>3.4336609999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1243.030000</v>
+        <v>1243.03</v>
       </c>
       <c r="AW24" s="1">
-        <v>-119.710000</v>
+        <v>-119.71</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>12372.173658</v>
@@ -6285,13 +6701,13 @@
         <v>3.436715</v>
       </c>
       <c r="BA24" s="1">
-        <v>1251.360000</v>
+        <v>1251.3599999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.077000</v>
+        <v>-137.077</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>12382.881259</v>
@@ -6300,377 +6716,377 @@
         <v>3.439689</v>
       </c>
       <c r="BF24" s="1">
-        <v>1290.860000</v>
+        <v>1290.8599999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-218.405000</v>
+        <v>-218.405</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>12393.937581</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.442760</v>
+        <v>3.4427599999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL24" s="1">
-        <v>-354.232000</v>
+        <v>-354.23200000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>12405.429090</v>
+        <v>12405.42909</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.445953</v>
+        <v>3.4459529999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.580000</v>
+        <v>-576.58000000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>12416.037328</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.448899</v>
+        <v>3.4488989999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1600.700000</v>
+        <v>1600.7</v>
       </c>
       <c r="BV24" s="1">
-        <v>-828.823000</v>
+        <v>-828.82299999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>12426.984560</v>
+        <v>12426.984560000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.451940</v>
+        <v>3.45194</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1751.370000</v>
+        <v>1751.37</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1103.900000</v>
+        <v>-1103.9000000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>12440.133008</v>
+        <v>12440.133008000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.455593</v>
+        <v>3.4555929999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2167.060000</v>
+        <v>2167.06</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1773.070000</v>
+        <v>-1773.07</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>12266.471205</v>
       </c>
       <c r="B25" s="1">
-        <v>3.407353</v>
+        <v>3.4073530000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1142.340000</v>
+        <v>1142.3399999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-256.221000</v>
+        <v>-256.221</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>12276.929351</v>
+        <v>12276.929351000001</v>
       </c>
       <c r="G25" s="1">
-        <v>3.410258</v>
+        <v>3.4102579999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1164.160000</v>
+        <v>1164.1600000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.233000</v>
+        <v>-215.233</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>12287.448505</v>
       </c>
       <c r="L25" s="1">
-        <v>3.413180</v>
+        <v>3.4131800000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1191.900000</v>
+        <v>1191.9000000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.170000</v>
+        <v>-149.16999999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>12298.001388</v>
+        <v>12298.001388000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.416111</v>
+        <v>3.4161109999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.689000</v>
+        <v>-127.68899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>12308.131183</v>
       </c>
       <c r="V25" s="1">
-        <v>3.418925</v>
+        <v>3.4189250000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1206.480000</v>
+        <v>1206.48</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.789000</v>
+        <v>-106.789</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>12318.670186</v>
+        <v>12318.670185999999</v>
       </c>
       <c r="AA25" s="1">
         <v>3.421853</v>
       </c>
       <c r="AB25" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.785800</v>
+        <v>-89.785799999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>12329.055442</v>
+        <v>12329.055442000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.424738</v>
+        <v>3.4247380000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1218.450000</v>
+        <v>1218.45</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.327000</v>
+        <v>-85.326999999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>12339.556213</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.427655</v>
+        <v>3.4276550000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.685300</v>
+        <v>-88.685299999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>12350.531190</v>
+        <v>12350.53119</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.430703</v>
+        <v>3.4307029999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1233.190000</v>
+        <v>1233.19</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.538000</v>
+        <v>-100.538</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>12361.634631</v>
+        <v>12361.634631000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.433787</v>
+        <v>3.4337870000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1243.030000</v>
+        <v>1243.03</v>
       </c>
       <c r="AW25" s="1">
-        <v>-119.714000</v>
+        <v>-119.714</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>12372.554554</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.436821</v>
+        <v>3.4368210000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1251.390000</v>
+        <v>1251.3900000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.039000</v>
+        <v>-137.03899999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>12383.273130</v>
+        <v>12383.27313</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.439798</v>
+        <v>3.4397980000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1290.860000</v>
+        <v>1290.8599999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-218.422000</v>
+        <v>-218.422</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>12394.314078</v>
+        <v>12394.314077999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.442865</v>
+        <v>3.4428649999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL25" s="1">
-        <v>-354.265000</v>
+        <v>-354.26499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>12405.862893</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.446073</v>
+        <v>3.4460730000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.617000</v>
+        <v>-576.61699999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>12416.467360</v>
+        <v>12416.467360000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.449019</v>
+        <v>3.4490189999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1600.540000</v>
+        <v>1600.54</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.872000</v>
+        <v>-828.87199999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>12427.441840</v>
+        <v>12427.44184</v>
       </c>
       <c r="BY25" s="1">
         <v>3.452067</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1751.380000</v>
+        <v>1751.38</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1104.040000</v>
+        <v>-1104.04</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>12440.652289</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.455737</v>
+        <v>3.4557370000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2167.690000</v>
+        <v>2167.69</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1775.110000</v>
+        <v>-1775.11</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>12266.810469</v>
       </c>
       <c r="B26" s="1">
-        <v>3.407447</v>
+        <v>3.4074469999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1142.370000</v>
+        <v>1142.3699999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-255.832000</v>
+        <v>-255.83199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>12277.617799</v>
       </c>
       <c r="G26" s="1">
-        <v>3.410449</v>
+        <v>3.4104489999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1164.230000</v>
+        <v>1164.23</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.600000</v>
+        <v>-215.6</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>12288.143908</v>
@@ -6679,225 +7095,226 @@
         <v>3.413373</v>
       </c>
       <c r="M26" s="1">
-        <v>1191.590000</v>
+        <v>1191.5899999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.355000</v>
+        <v>-149.35499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>12298.350571</v>
+        <v>12298.350571000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.416208</v>
+        <v>3.4162080000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.617000</v>
+        <v>-127.617</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>12308.476398</v>
+        <v>12308.476398000001</v>
       </c>
       <c r="V26" s="1">
-        <v>3.419021</v>
+        <v>3.4190209999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.540000</v>
+        <v>1206.54</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.835000</v>
+        <v>-106.83499999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>12319.017872</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.421949</v>
+        <v>3.4219490000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1214.020000</v>
+        <v>1214.02</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.817100</v>
+        <v>-89.817099999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>12329.712651</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.424920</v>
+        <v>3.4249200000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1218.430000</v>
+        <v>1218.43</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.381200</v>
+        <v>-85.381200000000007</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>12339.945572</v>
+        <v>12339.945572000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.427763</v>
+        <v>3.4277630000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.671500</v>
+        <v>-88.671499999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>12350.942374</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.430817</v>
+        <v>3.4308169999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1233.170000</v>
+        <v>1233.17</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.550000</v>
+        <v>-100.55</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>12361.999689</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.433889</v>
+        <v>3.4338890000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="AW26" s="1">
-        <v>-119.718000</v>
+        <v>-119.718</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>12372.915335</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.436921</v>
+        <v>3.4369209999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1251.390000</v>
+        <v>1251.3900000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.080000</v>
+        <v>-137.08000000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>12383.633194</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.439898</v>
+        <v>3.4398979999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1290.890000</v>
+        <v>1290.8900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-218.423000</v>
+        <v>-218.423</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>12394.747053</v>
+        <v>12394.747052999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.442985</v>
+        <v>3.4429850000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1359.240000</v>
+        <v>1359.24</v>
       </c>
       <c r="BL26" s="1">
-        <v>-354.249000</v>
+        <v>-354.24900000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>12406.242364</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.446178</v>
+        <v>3.4461780000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.576000</v>
+        <v>-576.57600000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>12416.877088</v>
+        <v>12416.877087999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.449133</v>
+        <v>3.4491329999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1600.610000</v>
+        <v>1600.61</v>
       </c>
       <c r="BV26" s="1">
-        <v>-828.733000</v>
+        <v>-828.73299999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>12427.890753</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.452192</v>
+        <v>3.4521920000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1751.250000</v>
+        <v>1751.25</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1103.980000</v>
+        <v>-1103.98</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>12441.192593</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.455887</v>
+        <v>3.4558870000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>2168.610000</v>
+        <v>2168.61</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1772.750000</v>
+        <v>-1772.75</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>